--- a/CapStatement/DEQM_Capability_Statement_Producer_Server.xlsx
+++ b/CapStatement/DEQM_Capability_Statement_Producer_Server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/CapStatement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C16901-9E75-434C-82D3-4CF4345B9BDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E707222-5E97-4C29-B3DD-83B1DB215F7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -192,9 +191,6 @@
     <t>http://hl7.org/fhir/us/davinci-deqm/STU3/ImplementationGuide/ig</t>
   </si>
   <si>
-    <t>davinci-deqm-producer-server</t>
-  </si>
-  <si>
     <t>This profile defines the expected capabilities of a Da Vinci DEQM Producer Server when conforming to the Da Vinci DEQM Implementation Guide. Producers include systems that are primary producers of patient healthcare information.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that are  Da Vinci DEQM Producer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
   </si>
   <si>
@@ -338,7 +334,10 @@
     <t>Da Vinci DEQM Producer Server **SHALL** be capable of supporting the [FHR Subscrption API](http://hl7.org/fhir/STU3/subscription.html) providing notifications when measure data is available.</t>
   </si>
   <si>
-    <t>Subscriptions_conf</t>
+    <t>conf_Subscription</t>
+  </si>
+  <si>
+    <t>producer-server</t>
   </si>
 </sst>
 </file>
@@ -413,10 +412,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -734,17 +733,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -752,31 +751,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -784,23 +783,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{23CA3714-2882-432D-892B-AA84AE140989}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -810,28 +812,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -847,15 +849,15 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.5" customWidth="1"/>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -869,186 +871,186 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1065,19 +1067,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1106,18 +1108,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
     </row>
   </sheetData>
@@ -1134,17 +1136,17 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1158,15 +1160,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1185,27 +1187,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1213,32 +1215,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1246,12 +1248,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1269,21 +1271,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1338,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
